--- a/01-Exploring_Plotting_Excel/ProductionPivot_Solution.xlsx
+++ b/01-Exploring_Plotting_Excel/ProductionPivot_Solution.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kay/Netflix_Assignments/01-Exploring_Plotting_Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kay/Desktop/deep learning with pytorch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69948A1-8EC3-FA42-B4F1-D5C7ADCF040F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E39A22-A341-8443-9CF2-935DDB7A4C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="1880" windowWidth="29040" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="940" windowWidth="28800" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Orders" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="22" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="33">
   <si>
     <t>Product Name</t>
   </si>
@@ -298,7 +298,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[ProductionPivot_Unsolved.xlsx]Counts by Shipping !PivotTable4</c:name>
+    <c:name>[ProductionPivot_Solution.xlsx]Counts by Shipping !PivotTable4</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -838,9 +838,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Counts by Shipping '!$A$4:$A$24</c:f>
+              <c:f>'Counts by Shipping '!$A$4:$A$89</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="68"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>High</c:v>
@@ -890,19 +890,214 @@
                   <c:pt idx="15">
                     <c:v>VIP</c:v>
                   </c:pt>
+                  <c:pt idx="16">
+                    <c:v>High</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Low</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Medium</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>VIP</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>High</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>Low</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>Medium</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>VIP</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>High</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>Low</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>Medium</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>VIP</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>High</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>Low</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>Medium</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>VIP</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>High</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>Low</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>Medium</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>VIP</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>High</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>Low</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>Medium</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>VIP</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>High</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>Low</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>Medium</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>VIP</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>High</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>Low</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>Medium</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>VIP</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>High</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>Low</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>Medium</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>VIP</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>High</c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>Low</c:v>
+                  </c:pt>
+                  <c:pt idx="54">
+                    <c:v>Medium</c:v>
+                  </c:pt>
+                  <c:pt idx="55">
+                    <c:v>VIP</c:v>
+                  </c:pt>
+                  <c:pt idx="56">
+                    <c:v>High</c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>Low</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>Medium</c:v>
+                  </c:pt>
+                  <c:pt idx="59">
+                    <c:v>VIP</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>High</c:v>
+                  </c:pt>
+                  <c:pt idx="61">
+                    <c:v>Low</c:v>
+                  </c:pt>
+                  <c:pt idx="62">
+                    <c:v>Medium</c:v>
+                  </c:pt>
+                  <c:pt idx="63">
+                    <c:v>VIP</c:v>
+                  </c:pt>
+                  <c:pt idx="64">
+                    <c:v>High</c:v>
+                  </c:pt>
+                  <c:pt idx="65">
+                    <c:v>Low</c:v>
+                  </c:pt>
+                  <c:pt idx="66">
+                    <c:v>Medium</c:v>
+                  </c:pt>
+                  <c:pt idx="67">
+                    <c:v>VIP</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
+                    <c:v>10 Foot HDMI Cable</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
                     <c:v>10 Foot USB Cable</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="8">
+                    <c:v>128GB Flash Drive</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>16GB Flash Drive</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
                     <c:v>2 Foot USB Cable</c:v>
                   </c:pt>
-                  <c:pt idx="8">
+                  <c:pt idx="20">
+                    <c:v>32GB Flash Drive</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>5 Foot HDMI Cable</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>5 Foot USB Cable</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
                     <c:v>64GB Flash Drive</c:v>
                   </c:pt>
-                  <c:pt idx="12">
+                  <c:pt idx="36">
+                    <c:v>Blue Ray DVD</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>Bluetooth Keyboard</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>Bluetooth Mouse</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>Standard Edition DVD</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>VHS Tape</c:v>
+                  </c:pt>
+                  <c:pt idx="56">
+                    <c:v>Wired Keyboard</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
                     <c:v>Wired Mouse</c:v>
+                  </c:pt>
+                  <c:pt idx="64">
+                    <c:v>Wireless Router</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -910,57 +1105,213 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Counts by Shipping '!$B$4:$B$24</c:f>
+              <c:f>'Counts by Shipping '!$B$4:$B$89</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="68"/>
                 <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="16">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="18">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="19">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="20">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="21">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="34">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="35">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="36">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="46">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="50">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="57">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="58">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1203,7 +1554,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[ProductionPivot_Unsolved.xlsx]Counts by Shipping !PivotTable4</c:name>
+    <c:name>[ProductionPivot_Solution.xlsx]Counts by Shipping !PivotTable4</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -2204,9 +2555,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Counts by Shipping '!$A$4:$A$24</c:f>
+              <c:f>'Counts by Shipping '!$A$4:$A$89</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="68"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>High</c:v>
@@ -2256,19 +2607,214 @@
                   <c:pt idx="15">
                     <c:v>VIP</c:v>
                   </c:pt>
+                  <c:pt idx="16">
+                    <c:v>High</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Low</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Medium</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>VIP</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>High</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>Low</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>Medium</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>VIP</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>High</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>Low</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>Medium</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>VIP</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>High</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>Low</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>Medium</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>VIP</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>High</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>Low</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>Medium</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>VIP</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>High</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>Low</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>Medium</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>VIP</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>High</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>Low</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>Medium</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>VIP</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>High</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>Low</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>Medium</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>VIP</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>High</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>Low</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>Medium</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>VIP</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>High</c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>Low</c:v>
+                  </c:pt>
+                  <c:pt idx="54">
+                    <c:v>Medium</c:v>
+                  </c:pt>
+                  <c:pt idx="55">
+                    <c:v>VIP</c:v>
+                  </c:pt>
+                  <c:pt idx="56">
+                    <c:v>High</c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>Low</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>Medium</c:v>
+                  </c:pt>
+                  <c:pt idx="59">
+                    <c:v>VIP</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>High</c:v>
+                  </c:pt>
+                  <c:pt idx="61">
+                    <c:v>Low</c:v>
+                  </c:pt>
+                  <c:pt idx="62">
+                    <c:v>Medium</c:v>
+                  </c:pt>
+                  <c:pt idx="63">
+                    <c:v>VIP</c:v>
+                  </c:pt>
+                  <c:pt idx="64">
+                    <c:v>High</c:v>
+                  </c:pt>
+                  <c:pt idx="65">
+                    <c:v>Low</c:v>
+                  </c:pt>
+                  <c:pt idx="66">
+                    <c:v>Medium</c:v>
+                  </c:pt>
+                  <c:pt idx="67">
+                    <c:v>VIP</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
+                    <c:v>10 Foot HDMI Cable</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
                     <c:v>10 Foot USB Cable</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="8">
+                    <c:v>128GB Flash Drive</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>16GB Flash Drive</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
                     <c:v>2 Foot USB Cable</c:v>
                   </c:pt>
-                  <c:pt idx="8">
+                  <c:pt idx="20">
+                    <c:v>32GB Flash Drive</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>5 Foot HDMI Cable</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>5 Foot USB Cable</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
                     <c:v>64GB Flash Drive</c:v>
                   </c:pt>
-                  <c:pt idx="12">
+                  <c:pt idx="36">
+                    <c:v>Blue Ray DVD</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>Bluetooth Keyboard</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>Bluetooth Mouse</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>Standard Edition DVD</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>VHS Tape</c:v>
+                  </c:pt>
+                  <c:pt idx="56">
+                    <c:v>Wired Keyboard</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
                     <c:v>Wired Mouse</c:v>
+                  </c:pt>
+                  <c:pt idx="64">
+                    <c:v>Wireless Router</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -2276,57 +2822,213 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Counts by Shipping '!$B$4:$B$24</c:f>
+              <c:f>'Counts by Shipping '!$B$4:$B$89</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="68"/>
                 <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="16">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="18">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="19">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="20">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="21">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="34">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="35">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="36">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="46">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="50">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="57">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="58">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2569,7 +3271,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[ProductionPivot_Unsolved.xlsx]Counts by Shipping !PivotTable4</c:name>
+    <c:name>[ProductionPivot_Solution.xlsx]Counts by Shipping !PivotTable4</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -3615,10 +4317,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.24172287839020123"/>
-          <c:y val="9.2986293379994173E-2"/>
-          <c:w val="0.648659886264217"/>
-          <c:h val="0.79965259550889489"/>
+          <c:x val="4.0391735558845496E-2"/>
+          <c:y val="0.32039151993755882"/>
+          <c:w val="0.84999102545626071"/>
+          <c:h val="0.57224730837216775"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -3651,9 +4353,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Counts by Shipping '!$A$4:$A$24</c:f>
+              <c:f>'Counts by Shipping '!$A$4:$A$89</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="68"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>High</c:v>
@@ -3703,19 +4405,214 @@
                   <c:pt idx="15">
                     <c:v>VIP</c:v>
                   </c:pt>
+                  <c:pt idx="16">
+                    <c:v>High</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Low</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Medium</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>VIP</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>High</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>Low</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>Medium</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>VIP</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>High</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>Low</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>Medium</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>VIP</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>High</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>Low</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>Medium</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>VIP</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>High</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>Low</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>Medium</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>VIP</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>High</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>Low</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>Medium</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>VIP</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>High</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>Low</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>Medium</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>VIP</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>High</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>Low</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>Medium</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>VIP</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>High</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>Low</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>Medium</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>VIP</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>High</c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>Low</c:v>
+                  </c:pt>
+                  <c:pt idx="54">
+                    <c:v>Medium</c:v>
+                  </c:pt>
+                  <c:pt idx="55">
+                    <c:v>VIP</c:v>
+                  </c:pt>
+                  <c:pt idx="56">
+                    <c:v>High</c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>Low</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>Medium</c:v>
+                  </c:pt>
+                  <c:pt idx="59">
+                    <c:v>VIP</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>High</c:v>
+                  </c:pt>
+                  <c:pt idx="61">
+                    <c:v>Low</c:v>
+                  </c:pt>
+                  <c:pt idx="62">
+                    <c:v>Medium</c:v>
+                  </c:pt>
+                  <c:pt idx="63">
+                    <c:v>VIP</c:v>
+                  </c:pt>
+                  <c:pt idx="64">
+                    <c:v>High</c:v>
+                  </c:pt>
+                  <c:pt idx="65">
+                    <c:v>Low</c:v>
+                  </c:pt>
+                  <c:pt idx="66">
+                    <c:v>Medium</c:v>
+                  </c:pt>
+                  <c:pt idx="67">
+                    <c:v>VIP</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
+                    <c:v>10 Foot HDMI Cable</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
                     <c:v>10 Foot USB Cable</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="8">
+                    <c:v>128GB Flash Drive</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>16GB Flash Drive</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
                     <c:v>2 Foot USB Cable</c:v>
                   </c:pt>
-                  <c:pt idx="8">
+                  <c:pt idx="20">
+                    <c:v>32GB Flash Drive</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>5 Foot HDMI Cable</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>5 Foot USB Cable</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
                     <c:v>64GB Flash Drive</c:v>
                   </c:pt>
-                  <c:pt idx="12">
+                  <c:pt idx="36">
+                    <c:v>Blue Ray DVD</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>Bluetooth Keyboard</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>Bluetooth Mouse</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>Standard Edition DVD</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>VHS Tape</c:v>
+                  </c:pt>
+                  <c:pt idx="56">
+                    <c:v>Wired Keyboard</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
                     <c:v>Wired Mouse</c:v>
+                  </c:pt>
+                  <c:pt idx="64">
+                    <c:v>Wireless Router</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -3723,57 +4620,213 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Counts by Shipping '!$B$4:$B$24</c:f>
+              <c:f>'Counts by Shipping '!$B$4:$B$89</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="68"/>
                 <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="16">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="18">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="19">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="20">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="21">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="34">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="35">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="36">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="46">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="50">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="57">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="58">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7714,10 +8767,10 @@
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14569,7 +15622,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DB7103E2-D136-804C-B8E6-8E99E8D014DD}" name="PivotTable3" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DB7103E2-D136-804C-B8E6-8E99E8D014DD}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
@@ -15251,8 +16304,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7A707691-4C46-8B42-8943-22DE8555CB41}" name="PivotTable4" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A3:B24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7A707691-4C46-8B42-8943-22DE8555CB41}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A3:B89" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0">
@@ -15861,7 +16914,7 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" measureFilter="1">
+    <pivotField axis="axisRow" showAll="0">
       <items count="18">
         <item x="4"/>
         <item x="0"/>
@@ -15900,9 +16953,54 @@
     <field x="3"/>
     <field x="4"/>
   </rowFields>
-  <rowItems count="21">
+  <rowItems count="86">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
     <i>
       <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="3"/>
     </i>
     <i r="1">
       <x/>
@@ -15932,6 +17030,51 @@
       <x v="3"/>
     </i>
     <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
       <x v="8"/>
     </i>
     <i r="1">
@@ -15947,7 +17090,112 @@
       <x v="3"/>
     </i>
     <i>
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
       <x v="15"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="16"/>
     </i>
     <i r="1">
       <x/>
@@ -16676,17 +17924,6 @@
     </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <filters count="1">
-    <filter fld="3" type="valueGreaterThan" evalOrder="-1" id="1" iMeasureFld="0">
-      <autoFilter ref="A1">
-        <filterColumn colId="0">
-          <customFilters>
-            <customFilter operator="greaterThan" val="40"/>
-          </customFilters>
-        </filterColumn>
-      </autoFilter>
-    </filter>
-  </filters>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -16699,7 +17936,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E4205E92-593E-8A44-A64C-9FD2E5D94136}" name="PivotTable7" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E4205E92-593E-8A44-A64C-9FD2E5D94136}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
@@ -17132,7 +18369,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H601"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A296" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
       <selection activeCell="S74" sqref="S74"/>
     </sheetView>
   </sheetViews>
@@ -33458,15 +34695,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DC04A6B-089A-C84E-AE35-3A3354855543}">
-  <dimension ref="A3:B24"/>
+  <dimension ref="A3:B89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.83203125" bestFit="1" customWidth="1"/>
@@ -33500,10 +34737,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" s="4">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -33511,7 +34748,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="4">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -33519,7 +34756,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="4">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -33527,7 +34764,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="4">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -33535,12 +34772,12 @@
         <v>22</v>
       </c>
       <c r="B8" s="4">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B9" s="4">
         <v>46</v>
@@ -33551,7 +34788,7 @@
         <v>21</v>
       </c>
       <c r="B10" s="4">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -33559,7 +34796,7 @@
         <v>19</v>
       </c>
       <c r="B11" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -33567,7 +34804,7 @@
         <v>20</v>
       </c>
       <c r="B12" s="4">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -33575,15 +34812,15 @@
         <v>22</v>
       </c>
       <c r="B13" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" s="4">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -33591,7 +34828,7 @@
         <v>21</v>
       </c>
       <c r="B15" s="4">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -33599,7 +34836,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="4">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -33607,7 +34844,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="4">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -33615,15 +34852,15 @@
         <v>22</v>
       </c>
       <c r="B18" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B19" s="4">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -33631,7 +34868,7 @@
         <v>21</v>
       </c>
       <c r="B20" s="4">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -33639,7 +34876,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="4">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -33647,7 +34884,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="4">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -33655,15 +34892,535 @@
         <v>22</v>
       </c>
       <c r="B23" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="4">
         <v>30</v>
       </c>
-      <c r="B24" s="4">
-        <v>181</v>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" s="4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B53" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54" s="4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B55" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B56" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B58" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B60" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B61" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B63" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B65" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B66" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B67" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B68" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B70" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B71" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B72" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B73" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B74" s="4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B75" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B76" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B77" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B78" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B79" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B80" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B81" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B82" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B83" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B84" s="4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B85" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B86" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B87" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B88" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B89" s="4">
+        <v>600</v>
       </c>
     </row>
   </sheetData>
